--- a/Despiegue fallido.xlsx
+++ b/Despiegue fallido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carlos\Angular\app-empleados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13EB2EC5-32B3-43BA-86C1-FF278F064D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE917DBD-F993-47FB-9661-541F26E10FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DB38B207-8171-4F48-A820-483AAA500368}"/>
+    <workbookView xWindow="6405" yWindow="3210" windowWidth="11460" windowHeight="12270" xr2:uid="{DB38B207-8171-4F48-A820-483AAA500368}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t xml:space="preserve"> npm run build</t>
-  </si>
-  <si>
     <t>npm install -g firebase-tools</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>firebase deploy --only hosting</t>
+  </si>
+  <si>
+    <t>npm run build</t>
   </si>
 </sst>
 </file>
@@ -603,136 +603,136 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="3:3">
@@ -743,7 +743,7 @@
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -754,12 +754,12 @@
     </row>
     <row r="35" spans="1:3">
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Despiegue fallido.xlsx
+++ b/Despiegue fallido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carlos\Angular\app-empleados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE917DBD-F993-47FB-9661-541F26E10FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DA4BF6-86CA-4051-94AA-5D902D3DB071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="3210" windowWidth="11460" windowHeight="12270" xr2:uid="{DB38B207-8171-4F48-A820-483AAA500368}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{DB38B207-8171-4F48-A820-483AAA500368}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>npm install -g firebase-tools</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>npm run build</t>
+  </si>
+  <si>
+    <t>EN EL FICHERO FIREBASE.JSON PONE QUE EL DIRECTORIO PÚBLICO ES dist</t>
   </si>
 </sst>
 </file>
@@ -600,25 +603,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4939DB1-AD62-4D9E-8CBB-DBA534194934}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -626,12 +632,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -639,25 +645,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -665,27 +674,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="C11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="C13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="C15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="C16" t="s">
         <v>16</v>
       </c>

--- a/Despiegue fallido.xlsx
+++ b/Despiegue fallido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carlos\Angular\app-empleados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DA4BF6-86CA-4051-94AA-5D902D3DB071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD6E2ED-89EE-4BE2-A39A-73D124D7FCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{DB38B207-8171-4F48-A820-483AAA500368}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>npm install -g firebase-tools</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>EN EL FICHERO FIREBASE.JSON PONE QUE EL DIRECTORIO PÚBLICO ES dist</t>
+  </si>
+  <si>
+    <t>npm ci &amp;&amp; npm run build</t>
+  </si>
+  <si>
+    <t>firebase deploy</t>
   </si>
 </sst>
 </file>
@@ -603,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4939DB1-AD62-4D9E-8CBB-DBA534194934}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -699,58 +705,63 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:8">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:8">
       <c r="C20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:8">
       <c r="C22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:8">
       <c r="C23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:8">
       <c r="C24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:8">
       <c r="C26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:8">
       <c r="C27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:8">
       <c r="C28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:8">
       <c r="C29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:8">
       <c r="C30" t="e" cm="1">
         <f t="array" ref="C30">+  Wrote dist/index.html</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
+    <row r="31" spans="3:8">
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8">
       <c r="C32" t="s">
         <v>26</v>
       </c>
@@ -771,6 +782,11 @@
         <v>28</v>
       </c>
     </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
